--- a/data/interview.xlsx
+++ b/data/interview.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,34 +40,55 @@
     <t xml:space="preserve">Modelo economico</t>
   </si>
   <si>
+    <t xml:space="preserve">O uso da supressão de vegetação nativa como um meio de renda, que é centralizado em atividades agropecuárias.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Produção agropecuária</t>
   </si>
   <si>
+    <t xml:space="preserve">A produção agropecuária apresenta uma expansão não planejada, o que acaba afetando a ocorrência da supressão de áreas de vegetação natural.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Falta de fiscalização</t>
   </si>
   <si>
+    <t xml:space="preserve">A falta de fiscalização promove um sentimento de impunidade da pratica ilegal de supressão de vegetação natural. A falta de fiscalização se agrava pelas dificuldades operacionais, e também de interesses políticos contra o fortalecimento da fiscalização.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preservação da floresta amazônica</t>
   </si>
   <si>
+    <t xml:space="preserve">A percepção de importância de uma área de vegetação natural pode influenciar na sua conservação.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preservação da biodiversidade</t>
   </si>
   <si>
+    <t xml:space="preserve">A percepção de importância de uma vegetação natural para a manutenção da biodiversidade pode influenciar em sua conservação.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Busca pela sustentabilidade</t>
   </si>
   <si>
+    <t xml:space="preserve">Valores de sustentabilidade associados a uma vegetação natural podem influenciar em sua conservação.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extração de recursos por sobrevivência</t>
   </si>
   <si>
+    <t xml:space="preserve">A supressão de vegetação natural também é feita para suprir as necessidades fundamentais de uma população.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Setor de mineração</t>
   </si>
   <si>
     <t xml:space="preserve">Setor da agropecuária</t>
   </si>
   <si>
+    <t xml:space="preserve">O modelo econômico atual, somado a demanda por produtos agropecuários, e a falta de fiscalização, fazem com que esse setor seja um causador de supressão de vegetação natural, com o objetivo de expansão de suas atividades.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Povos tradicionais/originários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscalização governamental</t>
   </si>
   <si>
     <t xml:space="preserve">Terceiro setor</t>
@@ -159,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -174,6 +195,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -306,7 +331,7 @@
   <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,8 +363,11 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,8 +377,11 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,8 +391,11 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,8 +405,11 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,8 +419,11 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,8 +433,11 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>10</v>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,8 +447,11 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,8 +461,8 @@
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>12</v>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,8 +472,11 @@
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>13</v>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,8 +486,8 @@
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>14</v>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,428 +497,422 @@
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>15</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>16</v>
-      </c>
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="4"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="4"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="4"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="4"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="4"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="4"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="4"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="4"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="4"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="4"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="4"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="4"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="4"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="4"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="4"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="4"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="4"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="4"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="4"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="4"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="4"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="4"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="4"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="4"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="4"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="4"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="4"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="4"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="4"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="4"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="4"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="4"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="4"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="4"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="4"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="4"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="4"/>
+      <c r="B79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="4"/>
+      <c r="B80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="4"/>
+      <c r="B81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="4"/>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="4"/>
+      <c r="B83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="4"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="4"/>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="4"/>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="4"/>
+      <c r="B87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="4"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="4"/>
+      <c r="B89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="4"/>
+      <c r="B90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="4"/>
+      <c r="B91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="4"/>
+      <c r="B92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="4"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="4"/>
+      <c r="B121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="4"/>
+      <c r="B122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="4"/>
+      <c r="B123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="4"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="4"/>
+      <c r="B125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="4"/>
+      <c r="B126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="4"/>
+      <c r="B127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="4"/>
+      <c r="B128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="4"/>
+      <c r="B129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="4"/>
+      <c r="B130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="4"/>
+      <c r="B131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="4"/>
+      <c r="B132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="4"/>
+      <c r="B133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="4"/>
+      <c r="B134" s="5"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="4"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="4"/>
+      <c r="B136" s="5"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="4"/>
+      <c r="B141" s="5"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="4"/>
+      <c r="B142" s="5"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="4"/>
+      <c r="B143" s="5"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="4"/>
+      <c r="B144" s="5"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="4"/>
+      <c r="B146" s="5"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="4"/>
+      <c r="B148" s="5"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="4"/>
+      <c r="B151" s="5"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="4"/>
+      <c r="B153" s="5"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="4"/>
+      <c r="B154" s="5"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="4"/>
+      <c r="B155" s="5"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="4"/>
+      <c r="B156" s="5"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="4"/>
+      <c r="B157" s="5"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="4"/>
+      <c r="B158" s="5"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="4"/>
+      <c r="B159" s="5"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="4"/>
+      <c r="B160" s="5"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="4"/>
+      <c r="B161" s="5"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="4"/>
+      <c r="B162" s="5"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="4"/>
+      <c r="B163" s="5"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="4"/>
+      <c r="B164" s="5"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="4"/>
+      <c r="B170" s="5"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="4"/>
+      <c r="B171" s="5"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="4"/>
+      <c r="B172" s="5"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="4"/>
+      <c r="B174" s="5"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="4"/>
+      <c r="B175" s="5"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="4"/>
+      <c r="B176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="4"/>
+      <c r="B177" s="5"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="4"/>
+      <c r="B180" s="5"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="4"/>
+      <c r="B181" s="5"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="4"/>
+      <c r="B182" s="5"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="4"/>
+      <c r="B183" s="5"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="4"/>
+      <c r="B184" s="5"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="4"/>
+      <c r="B185" s="5"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="4"/>
+      <c r="B186" s="5"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="4"/>
+      <c r="B187" s="5"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="4"/>
+      <c r="B188" s="5"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="4"/>
+      <c r="B189" s="5"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="4"/>
+      <c r="B190" s="5"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="4"/>
+      <c r="B191" s="5"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="4"/>
+      <c r="B192" s="5"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="4"/>
+      <c r="B193" s="5"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="4"/>
+      <c r="B194" s="5"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="4"/>
+      <c r="B195" s="5"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="4"/>
+      <c r="B196" s="5"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="4"/>
+      <c r="B197" s="5"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="4"/>
+      <c r="B198" s="5"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="4"/>
+      <c r="B199" s="5"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="4"/>
+      <c r="B201" s="5"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="4"/>
+      <c r="B202" s="5"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="4"/>
+      <c r="B203" s="5"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="4"/>
+      <c r="B204" s="5"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="4"/>
+      <c r="B205" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
